--- a/stat/test_pca.xlsx
+++ b/stat/test_pca.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nut\Desktop\ComSci-Project-main\stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuthapholdechpramualphol/Desktop/ComSci-Project/stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8CE958-DC60-429D-BD89-7823AF99AE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F25E2E-A375-004D-8375-B5C2758A1581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11505" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>data</t>
   </si>
@@ -42,9 +43,6 @@
     <t>pca</t>
   </si>
   <si>
-    <t>static value</t>
-  </si>
-  <si>
     <t>dynamic value</t>
   </si>
   <si>
@@ -82,13 +80,34 @@
   </si>
   <si>
     <t>atis_intents</t>
+  </si>
+  <si>
+    <t>static paramiter</t>
+  </si>
+  <si>
+    <t>k=14</t>
+  </si>
+  <si>
+    <t>เวลาที่ใช้ (วินาที)</t>
+  </si>
+  <si>
+    <t>ชุดข้อมูล</t>
+  </si>
+  <si>
+    <t>จำนวนมิติหลังทำ PCA ที่ได้</t>
+  </si>
+  <si>
+    <t>จำนวนมิติของข้อมูล</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +115,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,8 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,98 +477,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF9BC11-4C85-4A67-B122-E091E248D395}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>14</v>
-      </c>
-      <c r="F2">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.117988348007202</v>
       </c>
       <c r="H2">
         <v>2.28950977325439E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.10901212692260701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>0.63333333333333297</v>
-      </c>
-      <c r="G3">
-        <v>0.10901212692260701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -532,22 +579,22 @@
       <c r="E4">
         <v>0.6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.31333333333333302</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>6.1834573745727497E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -555,22 +602,22 @@
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.293333333333333</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>6.0837030410766602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -578,22 +625,22 @@
       <c r="E6">
         <v>0.6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0.293333333333333</v>
       </c>
-      <c r="G6">
-        <v>6.1861038208007799E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>6.0853958129882799E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -601,65 +648,69 @@
       <c r="E7">
         <v>0.1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.293333333333333</v>
       </c>
-      <c r="G7">
-        <v>6.1861038208007799E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>5.90262413024902E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>99</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.574548907882241</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>1.8632287979125901</v>
       </c>
       <c r="H9">
         <v>0.26403284072875899</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>102</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>0.61348528015194603</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.87752604484558105</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -667,22 +718,22 @@
       <c r="E11">
         <v>0.3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>9.9715099715099703E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.32111215591430597</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -690,22 +741,22 @@
       <c r="E12">
         <v>0.1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>9.6866096866096804E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.301193237304687</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -713,22 +764,22 @@
       <c r="E13">
         <v>0.3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>5.50807217473884E-2</v>
       </c>
-      <c r="G13">
-        <v>0.32013845443725503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>0.29400992393493602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -736,65 +787,69 @@
       <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>5.50807217473884E-2</v>
       </c>
-      <c r="G14">
-        <v>0.32013845443725503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>0.25793218612670898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>489</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.87926878264363195</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>28.849793195724398</v>
       </c>
       <c r="H16">
         <v>0.43362593650817799</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>485</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.87625552430694997</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>10.000765800476</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -802,22 +857,22 @@
       <c r="E18">
         <v>0.1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.77038971474487705</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1.7692394256591699</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -825,22 +880,22 @@
       <c r="E19">
         <v>0.1</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>0.78083567697870604</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>1.6540818214416499</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -848,22 +903,22 @@
       <c r="E20">
         <v>0.1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.75210928083567696</v>
       </c>
-      <c r="G20">
-        <v>1.7687849998474099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>1.5809979438781701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -871,15 +926,83 @@
       <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="F21">
-        <v>0.76295701084773004</v>
-      </c>
-      <c r="G21">
-        <v>1.7687849998474099</v>
+      <c r="F21" s="6">
+        <v>0.76175170751305699</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.4043557643890301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.28950977325439E-2</v>
+      </c>
+      <c r="C25">
+        <v>197</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.26403284072875899</v>
+      </c>
+      <c r="C26">
+        <v>609</v>
+      </c>
+      <c r="D26">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.43362593650817799</v>
+      </c>
+      <c r="C27">
+        <v>498</v>
+      </c>
+      <c r="D27">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317375B2-D3A6-F247-A75D-02F7855B6D1A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stat/test_pca.xlsx
+++ b/stat/test_pca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuthapholdechpramualphol/Desktop/ComSci-Project/stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F25E2E-A375-004D-8375-B5C2758A1581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA567F-9C4A-404A-BF6D-4AAE9B4B6145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,14 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +479,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -489,7 +488,7 @@
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
@@ -556,7 +555,7 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>0.63333333333333297</v>
       </c>
       <c r="G3" s="1">
@@ -579,7 +578,7 @@
       <c r="E4">
         <v>0.6</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.31333333333333302</v>
       </c>
       <c r="G4" s="1">
@@ -602,7 +601,7 @@
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>0.293333333333333</v>
       </c>
       <c r="G5" s="1">
@@ -625,7 +624,7 @@
       <c r="E6">
         <v>0.6</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.293333333333333</v>
       </c>
       <c r="G6" s="1">
@@ -648,7 +647,7 @@
       <c r="E7">
         <v>0.1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0.293333333333333</v>
       </c>
       <c r="G7" s="1">
@@ -656,7 +655,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="3"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -672,7 +671,7 @@
       <c r="E9">
         <v>99</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>0.574548907882241</v>
       </c>
       <c r="G9" s="1">
@@ -695,7 +694,7 @@
       <c r="E10">
         <v>102</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.61348528015194603</v>
       </c>
       <c r="G10" s="1">
@@ -718,7 +717,7 @@
       <c r="E11">
         <v>0.3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>9.9715099715099703E-2</v>
       </c>
       <c r="G11" s="1">
@@ -741,7 +740,7 @@
       <c r="E12">
         <v>0.1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>9.6866096866096804E-2</v>
       </c>
       <c r="G12" s="1">
@@ -764,7 +763,7 @@
       <c r="E13">
         <v>0.3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>5.50807217473884E-2</v>
       </c>
       <c r="G13" s="1">
@@ -787,7 +786,7 @@
       <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>5.50807217473884E-2</v>
       </c>
       <c r="G14" s="1">
@@ -795,7 +794,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F15" s="3"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -834,7 +833,7 @@
       <c r="E17">
         <v>485</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>0.87625552430694997</v>
       </c>
       <c r="G17" s="1">
@@ -857,7 +856,7 @@
       <c r="E18">
         <v>0.1</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>0.77038971474487705</v>
       </c>
       <c r="G18" s="1">
@@ -880,7 +879,7 @@
       <c r="E19">
         <v>0.1</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>0.78083567697870604</v>
       </c>
       <c r="G19" s="1">
@@ -903,7 +902,7 @@
       <c r="E20">
         <v>0.1</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>0.75210928083567696</v>
       </c>
       <c r="G20" s="1">
@@ -926,7 +925,7 @@
       <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>0.76175170751305699</v>
       </c>
       <c r="G21" s="1">

--- a/stat/test_pca.xlsx
+++ b/stat/test_pca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuthapholdechpramualphol/Desktop/ComSci-Project/stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA567F-9C4A-404A-BF6D-4AAE9B4B6145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4146D-6A30-5849-82AF-1CBCF520EDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="16620" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>data</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>จำนวนมิติของข้อมูล</t>
+  </si>
+  <si>
+    <t>sse</t>
   </si>
 </sst>
 </file>
@@ -155,13 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF9BC11-4C85-4A67-B122-E091E248D395}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -487,13 +491,13 @@
     <col min="1" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="5" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,16 +514,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -532,17 +539,20 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
+        <v>111.95698409812699</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.117988348007202</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.28950977325439E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -555,14 +565,17 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
+        <v>116.5258893</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.63333333333333297</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.10901212692260701</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -578,14 +591,17 @@
       <c r="E4">
         <v>0.6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
+        <v>142.642478857442</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.31333333333333302</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>6.1834573745727497E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -601,14 +617,17 @@
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
+        <v>116.5258893</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.293333333333333</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>6.0837030410766602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -624,14 +643,17 @@
       <c r="E6">
         <v>0.6</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
+        <v>145.083344912802</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.293333333333333</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>6.0853958129882799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -647,18 +669,21 @@
       <c r="E7">
         <v>0.1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
+        <v>116.5258893</v>
+      </c>
+      <c r="G7" s="1">
         <v>0.293333333333333</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>5.90262413024902E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -671,17 +696,20 @@
       <c r="E9">
         <v>99</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
+        <v>556.32620831096597</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.574548907882241</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1.8632287979125901</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.26403284072875899</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -694,14 +722,17 @@
       <c r="E10">
         <v>102</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
+        <v>356.57786850000002</v>
+      </c>
+      <c r="G10" s="4">
         <v>0.61348528015194603</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.87752604484558105</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -717,14 +748,17 @@
       <c r="E11">
         <v>0.3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
+        <v>913.26789724100604</v>
+      </c>
+      <c r="G11" s="3">
         <v>9.9715099715099703E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>0.32111215591430597</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -740,14 +774,17 @@
       <c r="E12">
         <v>0.1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
+        <v>715.95626449999997</v>
+      </c>
+      <c r="G12" s="1">
         <v>9.6866096866096804E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.301193237304687</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -763,14 +800,17 @@
       <c r="E13">
         <v>0.3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
+        <v>961.845575163955</v>
+      </c>
+      <c r="G13" s="3">
         <v>5.50807217473884E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>0.29400992393493602</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -786,18 +826,21 @@
       <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
+        <v>762.02756975112402</v>
+      </c>
+      <c r="G14" s="1">
         <v>5.50807217473884E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>0.25793218612670898</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F15" s="1"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -810,17 +853,20 @@
       <c r="E16">
         <v>489</v>
       </c>
-      <c r="F16" s="2">
-        <v>0.87926878264363195</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F16">
+        <v>1741.0131929005299</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.809268782643632</v>
+      </c>
+      <c r="H16" s="1">
         <v>28.849793195724398</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.43362593650817799</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -833,14 +879,17 @@
       <c r="E17">
         <v>485</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
+        <v>1146.6829319999999</v>
+      </c>
+      <c r="G17" s="4">
         <v>0.87625552430694997</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>10.000765800476</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -856,14 +905,17 @@
       <c r="E18">
         <v>0.1</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
+        <v>4111.4755783031496</v>
+      </c>
+      <c r="G18" s="1">
         <v>0.77038971474487705</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>1.7692394256591699</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -879,14 +931,17 @@
       <c r="E19">
         <v>0.1</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
+        <v>3207.7457420000001</v>
+      </c>
+      <c r="G19" s="5">
         <v>0.78083567697870604</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>1.6540818214416499</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -902,14 +957,17 @@
       <c r="E20">
         <v>0.1</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
+        <v>4453.3630502866099</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.75210928083567696</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>1.5809979438781701</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -925,68 +983,24 @@
       <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
+        <v>3509.330019</v>
+      </c>
+      <c r="G21" s="5">
         <v>0.76175170751305699</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>1.4043557643890301</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2.28950977325439E-2</v>
-      </c>
-      <c r="C25">
-        <v>197</v>
-      </c>
-      <c r="D25">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.26403284072875899</v>
-      </c>
-      <c r="C26">
-        <v>609</v>
-      </c>
-      <c r="D26">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.43362593650817799</v>
-      </c>
-      <c r="C27">
-        <v>498</v>
-      </c>
-      <c r="D27">
-        <v>111</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -996,12 +1010,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317375B2-D3A6-F247-A75D-02F7855B6D1A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.28950977325439E-2</v>
+      </c>
+      <c r="C2">
+        <v>197</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.26403284072875899</v>
+      </c>
+      <c r="C3">
+        <v>609</v>
+      </c>
+      <c r="D3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.43362593650817799</v>
+      </c>
+      <c r="C4">
+        <v>498</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stat/test_pca.xlsx
+++ b/stat/test_pca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuthapholdechpramualphol/Desktop/ComSci-Project/stat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nut\Desktop\ComSci-Project\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4146D-6A30-5849-82AF-1CBCF520EDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37F580-F16A-49A2-BD57-E809A40FD645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="16620" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
+    <workbookView xWindow="2445" yWindow="2595" windowWidth="21600" windowHeight="11505" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>data</t>
   </si>
@@ -101,6 +101,21 @@
   </si>
   <si>
     <t>sse</t>
+  </si>
+  <si>
+    <t>ชุดข้อมูลที่สร้างขึ้น</t>
+  </si>
+  <si>
+    <t>ชุดข้อมูลจำลอง</t>
+  </si>
+  <si>
+    <t>k= 48</t>
+  </si>
+  <si>
+    <t>k= 46</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -166,6 +181,7 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,24 +496,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF9BC11-4C85-4A67-B122-E091E248D395}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -539,7 +555,7 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>111.95698409812699</v>
       </c>
       <c r="G2" s="2">
@@ -552,7 +568,7 @@
         <v>2.28950977325439E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -565,7 +581,7 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>116.5258893</v>
       </c>
       <c r="G3" s="1">
@@ -575,7 +591,7 @@
         <v>0.10901212692260701</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -591,7 +607,7 @@
       <c r="E4">
         <v>0.6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>142.642478857442</v>
       </c>
       <c r="G4" s="3">
@@ -601,7 +617,7 @@
         <v>6.1834573745727497E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -617,7 +633,7 @@
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>116.5258893</v>
       </c>
       <c r="G5" s="1">
@@ -627,7 +643,7 @@
         <v>6.0837030410766602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -643,7 +659,7 @@
       <c r="E6">
         <v>0.6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>145.083344912802</v>
       </c>
       <c r="G6" s="3">
@@ -653,7 +669,7 @@
         <v>6.0853958129882799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -669,7 +685,7 @@
       <c r="E7">
         <v>0.1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>116.5258893</v>
       </c>
       <c r="G7" s="1">
@@ -679,11 +695,12 @@
         <v>5.90262413024902E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="7"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -696,7 +713,7 @@
       <c r="E9">
         <v>99</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>556.32620831096597</v>
       </c>
       <c r="G9" s="1">
@@ -709,7 +726,7 @@
         <v>0.26403284072875899</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -722,7 +739,7 @@
       <c r="E10">
         <v>102</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>356.57786850000002</v>
       </c>
       <c r="G10" s="4">
@@ -732,7 +749,7 @@
         <v>0.87752604484558105</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -748,7 +765,7 @@
       <c r="E11">
         <v>0.3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>913.26789724100604</v>
       </c>
       <c r="G11" s="3">
@@ -758,7 +775,7 @@
         <v>0.32111215591430597</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -774,7 +791,7 @@
       <c r="E12">
         <v>0.1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>715.95626449999997</v>
       </c>
       <c r="G12" s="1">
@@ -784,7 +801,7 @@
         <v>0.301193237304687</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -800,7 +817,7 @@
       <c r="E13">
         <v>0.3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>961.845575163955</v>
       </c>
       <c r="G13" s="3">
@@ -810,7 +827,7 @@
         <v>0.29400992393493602</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -826,7 +843,7 @@
       <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>762.02756975112402</v>
       </c>
       <c r="G14" s="1">
@@ -836,11 +853,12 @@
         <v>0.25793218612670898</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="7"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -853,7 +871,7 @@
       <c r="E16">
         <v>489</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>1741.0131929005299</v>
       </c>
       <c r="G16" s="6">
@@ -866,7 +884,7 @@
         <v>0.43362593650817799</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -879,7 +897,7 @@
       <c r="E17">
         <v>485</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>1146.6829319999999</v>
       </c>
       <c r="G17" s="4">
@@ -889,7 +907,7 @@
         <v>10.000765800476</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -905,7 +923,7 @@
       <c r="E18">
         <v>0.1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>4111.4755783031496</v>
       </c>
       <c r="G18" s="1">
@@ -915,7 +933,7 @@
         <v>1.7692394256591699</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -931,7 +949,7 @@
       <c r="E19">
         <v>0.1</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>3207.7457420000001</v>
       </c>
       <c r="G19" s="5">
@@ -941,7 +959,7 @@
         <v>1.6540818214416499</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -957,7 +975,7 @@
       <c r="E20">
         <v>0.1</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>4453.3630502866099</v>
       </c>
       <c r="G20" s="1">
@@ -967,7 +985,7 @@
         <v>1.5809979438781701</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -983,7 +1001,7 @@
       <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>3509.330019</v>
       </c>
       <c r="G21" s="5">
@@ -993,14 +1011,149 @@
         <v>1.4043557643890301</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="7">
+        <v>95.252078822131907</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.62987852096557595</v>
+      </c>
+      <c r="I23">
+        <v>2.7980804443359299E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="7">
+        <v>23.292089389496699</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.56574511528015103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7">
+        <v>156.63662616837399</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.39497351646423301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <v>80.424283187061604</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.360301733016967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="F27" s="7">
+        <v>228.961105572755</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.37955474853515597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>141.06037927898799</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.372901201248168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,15 +1163,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317375B2-D3A6-F247-A75D-02F7855B6D1A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1032,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1202,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1216,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1072,6 +1228,20 @@
       </c>
       <c r="D4">
         <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.7980804443359299E-2</v>
+      </c>
+      <c r="C5">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/stat/test_pca.xlsx
+++ b/stat/test_pca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nut\Desktop\ComSci-Project\stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuthapholdechpramualphol/Desktop/ComSci-Project/stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37F580-F16A-49A2-BD57-E809A40FD645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF8353-6C9E-7D42-9833-C3A34CF40189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2595" windowWidth="21600" windowHeight="11505" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="20200" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>data</t>
   </si>
@@ -103,9 +103,6 @@
     <t>sse</t>
   </si>
   <si>
-    <t>ชุดข้อมูลที่สร้างขึ้น</t>
-  </si>
-  <si>
     <t>ชุดข้อมูลจำลอง</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>mse</t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -182,6 +189,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,24 +504,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF9BC11-4C85-4A67-B122-E091E248D395}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,16 +541,19 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -558,17 +569,20 @@
       <c r="F2" s="7">
         <v>111.95698409812699</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
+        <v>11.9901020656549</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.117988348007202</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.28950977325439E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -585,13 +599,16 @@
         <v>116.5258893</v>
       </c>
       <c r="G3" s="1">
+        <v>7.1317603734433899</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.63333333333333297</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.10901212692260701</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -610,14 +627,17 @@
       <c r="F4" s="7">
         <v>142.642478857442</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
+        <v>140.19293273490899</v>
+      </c>
+      <c r="H4" s="3">
         <v>0.31333333333333302</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>6.1834573745727497E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -637,13 +657,16 @@
         <v>116.5258893</v>
       </c>
       <c r="G5" s="1">
+        <v>9.7104907748687594</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.293333333333333</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>6.0837030410766602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -662,14 +685,17 @@
       <c r="F6" s="7">
         <v>145.083344912802</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
+        <v>140.19293273490899</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.293333333333333</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>6.0853958129882799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -688,19 +714,23 @@
       <c r="F7" s="7">
         <v>116.5258893</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="8">
+        <v>9.7104907699999998</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.293333333333333</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>5.90262413024902E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F8" s="7"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -716,17 +746,18 @@
       <c r="F9" s="7">
         <v>556.32620831096597</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
         <v>0.574548907882241</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1.8632287979125901</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.26403284072875899</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -742,14 +773,17 @@
       <c r="F10" s="7">
         <v>356.57786850000002</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
+        <v>3.7143527964968301</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.61348528015194603</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.87752604484558105</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -768,14 +802,15 @@
       <c r="F11" s="7">
         <v>913.26789724100604</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1"/>
+      <c r="H11" s="3">
         <v>9.9715099715099703E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.32111215591430597</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -795,13 +830,16 @@
         <v>715.95626449999997</v>
       </c>
       <c r="G12" s="1">
+        <v>7.4578777550000002</v>
+      </c>
+      <c r="H12" s="1">
         <v>9.6866096866096804E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>0.301193237304687</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -820,14 +858,15 @@
       <c r="F13" s="7">
         <v>961.845575163955</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1"/>
+      <c r="H13" s="3">
         <v>5.50807217473884E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.29400992393493602</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -847,18 +886,22 @@
         <v>762.02756975112402</v>
       </c>
       <c r="G14" s="1">
+        <v>7.9553981985764404</v>
+      </c>
+      <c r="H14" s="1">
         <v>5.50807217473884E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.25793218612670898</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F15" s="7"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -874,17 +917,18 @@
       <c r="F16" s="7">
         <v>1741.0131929005299</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="1"/>
+      <c r="H16" s="6">
         <v>0.809268782643632</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>28.849793195724398</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.43362593650817799</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -900,14 +944,17 @@
       <c r="F17" s="7">
         <v>1146.6829319999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
+        <v>2.3497601070555598</v>
+      </c>
+      <c r="H17" s="4">
         <v>0.87625552430694997</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>10.000765800476</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -926,14 +973,15 @@
       <c r="F18" s="7">
         <v>4111.4755783031496</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
         <v>0.77038971474487705</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>1.7692394256591699</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -952,14 +1000,17 @@
       <c r="F19" s="7">
         <v>3207.7457420000001</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
+        <v>6.5732494700000004</v>
+      </c>
+      <c r="H19" s="5">
         <v>0.78083567697870604</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>1.6540818214416499</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -978,14 +1029,15 @@
       <c r="F20" s="7">
         <v>4453.3630502866099</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
         <v>0.75210928083567696</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>1.5809979438781701</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1004,19 +1056,23 @@
       <c r="F21" s="7">
         <v>3509.330019</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
+        <v>7.1912500397486898</v>
+      </c>
+      <c r="H21" s="5">
         <v>0.76175170751305699</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>1.4043557643890301</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1025,24 +1081,27 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="7">
         <v>95.252078822131907</v>
       </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="G23" s="1">
+        <v>1.90240791143013</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1">
         <v>0.62987852096557595</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2.7980804443359299E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -1051,21 +1110,24 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="7">
         <v>23.292089389496699</v>
       </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="G24" s="1">
+        <v>2.70154858595023</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1">
         <v>0.56574511528015103</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1079,16 +1141,19 @@
       <c r="F25" s="7">
         <v>156.63662616837399</v>
       </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="G25" s="1">
+        <v>3.4051440471385699</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1">
         <v>0.39497351646423301</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -1102,16 +1167,19 @@
       <c r="F26" s="7">
         <v>80.424283187061604</v>
       </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="1">
+        <v>3.9045755833579201</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
         <v>0.360301733016967</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1125,16 +1193,19 @@
       <c r="F27" s="7">
         <v>228.961105572755</v>
       </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G27" s="1">
+        <v>9.9548306770763197</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="1">
         <v>0.37955474853515597</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1148,10 +1219,13 @@
       <c r="F28" s="7">
         <v>141.06037927898799</v>
       </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="G28" s="1">
+        <v>5.5452725101224498</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="1">
         <v>0.372901201248168</v>
       </c>
     </row>
@@ -1166,15 +1240,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1188,7 +1265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1293,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +1307,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/stat/test_pca.xlsx
+++ b/stat/test_pca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuthapholdechpramualphol/Desktop/ComSci-Project/stat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nut\Desktop\ComSci-Project\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF8353-6C9E-7D42-9833-C3A34CF40189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A2BF2-9053-437E-81D9-4A7D7191F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="20200" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
+    <workbookView xWindow="2445" yWindow="2595" windowWidth="21600" windowHeight="11505" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,22 +506,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF9BC11-4C85-4A67-B122-E091E248D395}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -582,7 +582,7 @@
         <v>2.28950977325439E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0.10901212692260701</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -637,7 +637,7 @@
         <v>6.1834573745727497E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -666,7 +666,7 @@
         <v>6.0837030410766602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -695,7 +695,7 @@
         <v>6.0853958129882799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -724,13 +724,13 @@
         <v>5.90262413024902E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="7"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -746,7 +746,9 @@
       <c r="F9" s="7">
         <v>556.32620831096597</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>6.5162652591585903</v>
+      </c>
       <c r="H9" s="1">
         <v>0.574548907882241</v>
       </c>
@@ -757,7 +759,7 @@
         <v>0.26403284072875899</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -783,7 +785,7 @@
         <v>0.87752604484558105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -802,7 +804,9 @@
       <c r="F11" s="7">
         <v>913.26789724100604</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>239.55980337142901</v>
+      </c>
       <c r="H11" s="3">
         <v>9.9715099715099703E-2</v>
       </c>
@@ -810,7 +814,7 @@
         <v>0.32111215591430597</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -839,7 +843,7 @@
         <v>0.301193237304687</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -858,7 +862,9 @@
       <c r="F13" s="7">
         <v>961.845575163955</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>482.64069641630601</v>
+      </c>
       <c r="H13" s="3">
         <v>5.50807217473884E-2</v>
       </c>
@@ -866,7 +872,7 @@
         <v>0.29400992393493602</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -895,13 +901,13 @@
         <v>0.25793218612670898</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="7"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -917,7 +923,9 @@
       <c r="F16" s="7">
         <v>1741.0131929005299</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>4.2153749445881203</v>
+      </c>
       <c r="H16" s="6">
         <v>0.809268782643632</v>
       </c>
@@ -928,7 +936,7 @@
         <v>0.43362593650817799</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -954,7 +962,7 @@
         <v>10.000765800476</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -973,7 +981,9 @@
       <c r="F18" s="7">
         <v>4111.4755783031496</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>57.802615838137903</v>
+      </c>
       <c r="H18" s="1">
         <v>0.77038971474487705</v>
       </c>
@@ -981,7 +991,7 @@
         <v>1.7692394256591699</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>1.6540818214416499</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1039,9 @@
       <c r="F20" s="7">
         <v>4453.3630502866099</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>322.30989253276903</v>
+      </c>
       <c r="H20" s="1">
         <v>0.75210928083567696</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>1.5809979438781701</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1066,11 +1078,11 @@
         <v>1.4043557643890301</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F22" s="7"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>2.7980804443359299E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>0.56574511528015103</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>0.39497351646423301</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1189,7 @@
         <v>0.360301733016967</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>0.37955474853515597</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1243,15 +1255,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +1277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1279,7 +1291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>

--- a/stat/test_pca.xlsx
+++ b/stat/test_pca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nut\Desktop\ComSci-Project\stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuthapholdechpramualphol/Desktop/ComSci-Project/stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216A2BF2-9053-437E-81D9-4A7D7191F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121FA7B9-D0D3-A244-9135-92EF9F815233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2595" windowWidth="21600" windowHeight="11505" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
+    <workbookView xWindow="8700" yWindow="1420" windowWidth="17520" windowHeight="20220" xr2:uid="{3B653C49-8DFF-4FD0-8FC8-3E41046ADDB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,22 +506,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF9BC11-4C85-4A67-B122-E091E248D395}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -582,7 +582,7 @@
         <v>2.28950977325439E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0.10901212692260701</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -637,7 +637,7 @@
         <v>6.1834573745727497E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -666,7 +666,7 @@
         <v>6.0837030410766602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -695,7 +695,7 @@
         <v>6.0853958129882799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -724,13 +724,13 @@
         <v>5.90262413024902E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F8" s="7"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -759,7 +759,7 @@
         <v>0.26403284072875899</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0.87752604484558105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.32111215591430597</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -843,7 +843,7 @@
         <v>0.301193237304687</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0.29400992393493602</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -901,13 +901,13 @@
         <v>0.25793218612670898</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F15" s="7"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0.43362593650817799</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -962,7 +962,7 @@
         <v>10.000765800476</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1.7692394256591699</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>1.6540818214416499</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1.5809979438781701</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1078,11 +1078,11 @@
         <v>1.4043557643890301</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F22" s="7"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2.7980804443359299E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>23.292089389496699</v>
       </c>
       <c r="G24" s="1">
-        <v>2.70154858595023</v>
+        <v>0.455796646260828</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -1137,7 +1137,7 @@
         <v>0.56574511528015103</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1150,6 +1150,9 @@
       <c r="D25">
         <v>3</v>
       </c>
+      <c r="E25">
+        <v>0.2</v>
+      </c>
       <c r="F25" s="7">
         <v>156.63662616837399</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>0.39497351646423301</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1176,6 +1179,9 @@
       <c r="D26">
         <v>3</v>
       </c>
+      <c r="E26">
+        <v>0.7</v>
+      </c>
       <c r="F26" s="7">
         <v>80.424283187061604</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>0.360301733016967</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1202,6 +1208,9 @@
       <c r="D27">
         <v>5</v>
       </c>
+      <c r="E27">
+        <v>0.2</v>
+      </c>
       <c r="F27" s="7">
         <v>228.961105572755</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>0.37955474853515597</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1227,6 +1236,9 @@
       </c>
       <c r="D28">
         <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0.7</v>
       </c>
       <c r="F28" s="7">
         <v>141.06037927898799</v>
@@ -1251,19 +1263,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317375B2-D3A6-F247-A75D-02F7855B6D1A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +1289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1317,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1331,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
